--- a/docs/auth-flows.xlsx
+++ b/docs/auth-flows.xlsx
@@ -1,31 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_data3_start_21march2020\2.ravi_personal_projects-3\azure-spring-boot-azure-ad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF057287-557F-409D-B527-346C8960BBD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67647D98-C31F-4EE5-B288-A224023A81BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="app-registration-details" sheetId="1" r:id="rId1"/>
+    <sheet name="app-registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="app-service" sheetId="3" r:id="rId4"/>
+    <sheet name="storage-account" sheetId="4" r:id="rId5"/>
+    <sheet name="Databricks" sheetId="5" r:id="rId6"/>
+    <sheet name="hdinsight" sheetId="6" r:id="rId7"/>
+    <sheet name="DB" sheetId="8" r:id="rId8"/>
+    <sheet name="ADF-Hdinsight" sheetId="7" r:id="rId9"/>
+    <sheet name="Kafka-hdinsight" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
   <si>
     <t>Authorization code</t>
   </si>
@@ -175,13 +192,287 @@
   </si>
   <si>
     <t>https://localhost:8443/msal4jsample/secure/aad</t>
+  </si>
+  <si>
+    <t>1st application</t>
+  </si>
+  <si>
+    <t>Application (client) ID</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>App Registration</t>
+  </si>
+  <si>
+    <t>e796f1b3-3b4f-47cd-9122-b4b573ed67e7</t>
+  </si>
+  <si>
+    <t>Directory (tenant) ID</t>
+  </si>
+  <si>
+    <t>e12c9f8e-ecb3-4cbd-b504-9410ab9116ae</t>
+  </si>
+  <si>
+    <t>McC0Y6T~qV~krH9Dz.we9vS5nQ3f~_Ej2O</t>
+  </si>
+  <si>
+    <t>Redirect URL</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/login/oauth2/code/azure</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>koolkwebapp-rg</t>
+  </si>
+  <si>
+    <t>web app name</t>
+  </si>
+  <si>
+    <t>koolkdemo</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>central US</t>
+  </si>
+  <si>
+    <t>App Service Plan</t>
+  </si>
+  <si>
+    <t>koolkappservice</t>
+  </si>
+  <si>
+    <t>Sku and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium V2 P1v2  (210 total ACU, 3.5 GB memory)
+P1V2  210 total ACU(Azure Compute Units )  3.5 GB memory Dv2-Series compute equivalent 4873.28 INR/Month (Estimated) </t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>REhhYTO</t>
+  </si>
+  <si>
+    <t>RE2hO@124</t>
+  </si>
+  <si>
+    <t>8ZxFBTdq9dQYHnm13fL1C7BEbh3aq160PuvNunew0v79ulcfgd9dqG1mWJxD</t>
+  </si>
+  <si>
+    <t>ftp pwd</t>
+  </si>
+  <si>
+    <t>koolkravistorageact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage account </t>
+  </si>
+  <si>
+    <t>container-name</t>
+  </si>
+  <si>
+    <t>flightdata</t>
+  </si>
+  <si>
+    <t>workspace name</t>
+  </si>
+  <si>
+    <t>cluster name</t>
+  </si>
+  <si>
+    <t>koolkravi_dbws</t>
+  </si>
+  <si>
+    <t>koolkravi-dbcluster</t>
+  </si>
+  <si>
+    <t>koolkravi-bdrg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>EAST US</t>
+  </si>
+  <si>
+    <t>Central US</t>
+  </si>
+  <si>
+    <t>koolkravi_dbws2</t>
+  </si>
+  <si>
+    <t>koolkravi-dbcluster2</t>
+  </si>
+  <si>
+    <t>koolkravi-bdrg2</t>
+  </si>
+  <si>
+    <t>User Assigned Managed</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>koolkravi-gdrg</t>
+  </si>
+  <si>
+    <t>us-managed-identity1</t>
+  </si>
+  <si>
+    <t>eastus</t>
+  </si>
+  <si>
+    <t>koolkravi-hdirg</t>
+  </si>
+  <si>
+    <t>koolkdatalakestoragedev</t>
+  </si>
+  <si>
+    <t>storage account</t>
+  </si>
+  <si>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Gd33$5512FG</t>
+  </si>
+  <si>
+    <t>Secure Shell (SSH) username</t>
+  </si>
+  <si>
+    <t>sshuser</t>
+  </si>
+  <si>
+    <t>Use cluster login password for SSH</t>
+  </si>
+  <si>
+    <t>DN name</t>
+  </si>
+  <si>
+    <t>koolkDataBase</t>
+  </si>
+  <si>
+    <t>ServerName</t>
+  </si>
+  <si>
+    <t>koolksqlserver</t>
+  </si>
+  <si>
+    <t>Server admin login</t>
+  </si>
+  <si>
+    <t>azureuser</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>eastUS</t>
+  </si>
+  <si>
+    <t>servername</t>
+  </si>
+  <si>
+    <t>koolksqlserver.database.windows.net</t>
+  </si>
+  <si>
+    <t>koolkravihdicluster2</t>
+  </si>
+  <si>
+    <t>adf-hdicluster-sp</t>
+  </si>
+  <si>
+    <t>b4d76553-1807-42b9-80ac-a31e609eb57c</t>
+  </si>
+  <si>
+    <t>adf-hdicluster-rg</t>
+  </si>
+  <si>
+    <t>_55A0LK0~mx-H2kB6t56FOCR5~Vf2htU.w</t>
+  </si>
+  <si>
+    <t>Storage account</t>
+  </si>
+  <si>
+    <t>adfhdiclustersrorageact</t>
+  </si>
+  <si>
+    <t>container name</t>
+  </si>
+  <si>
+    <t>adfv2hiveactivity</t>
+  </si>
+  <si>
+    <t>DataFactory</t>
+  </si>
+  <si>
+    <t>adf-hdicluster-datafactory</t>
+  </si>
+  <si>
+    <t>link services</t>
+  </si>
+  <si>
+    <t>HDIStorageLinkedService</t>
+  </si>
+  <si>
+    <t>HDInsightLinkedService</t>
+  </si>
+  <si>
+    <t>cluster name prefix</t>
+  </si>
+  <si>
+    <t>adfhdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG </t>
+  </si>
+  <si>
+    <t>kafka-hdinsight-rg</t>
+  </si>
+  <si>
+    <t>kafka-hdi-cluster</t>
+  </si>
+  <si>
+    <t>East US</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>kafkahdistorageact</t>
+  </si>
+  <si>
+    <t>vnet</t>
+  </si>
+  <si>
+    <t>kafka-hdi-vnet</t>
+  </si>
+  <si>
+    <t>stotage account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +496,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF323130"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -252,6 +562,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,9 +866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,4 +1210,633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1453181-757B-49B8-9C69-BE504B004BB3}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EDAF8-1FB1-4F23-96AC-E32B96885054}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBD9DE2-F0B5-41CC-9413-E8068E203F74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4CAE5-1E39-40E4-BE3A-4D8D5AF490CD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{55361837-D875-4D2D-88EA-66CA14A3D463}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5AE6F-9279-436C-A1D7-05C82CE0CE18}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF81F27D-C20D-4493-85B5-0142C2736F56}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29539AC5-1D16-4EE6-A097-1D88FF9F31C1}">
+  <dimension ref="B1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="14" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="14"/>
+    <col min="7" max="7" width="9.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="18.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187CE790-4CE9-40BA-AF51-881ED404A83F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10CB202-F363-41F0-8CB6-17A66EBD8FF3}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>